--- a/biology/Médecine/Diaphragme_stylien/Diaphragme_stylien.xlsx
+++ b/biology/Médecine/Diaphragme_stylien/Diaphragme_stylien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diaphragme stylien est un rideau ostéo-musculo-tendineux situé au niveau de la face, dans l'espace latéro-pharyngien.
 </t>
@@ -511,9 +523,11 @@
           <t>Forme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le diaphragme stylien[1] forme un plan incliné en bas, en avant et en dehors, situé schématiquement entre :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le diaphragme stylien forme un plan incliné en bas, en avant et en dehors, situé schématiquement entre :
 la base du crâne en haut,
 l'os hyoïde en bas,
 le pharynx en dedans,
@@ -548,7 +562,9 @@
           <t>Constitution[1]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diaphragme stylien est constitué de quatre muscles et de deux ligaments réunis par une aponévrose. D’arrière en avant on trouve :
 le ventre postérieur du muscle digastrique ;
@@ -586,7 +602,9 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cas d’une infection de l’espace latéropharyngien (après une pharyngite par exemple), l’ORL devra d’abord déterminer, à l'aide de l'examen clinique et d'un scanner, la position de la collection purulente par rapport au diaphragme stylien pour en préciser la voie d’abord chirurgicale.
 </t>
